--- a/etc/template.xlsx
+++ b/etc/template.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69FE84C4-0778-4DA9-955E-19DA2A18A271}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFB319F-24AA-4254-B1FA-BE330E70A70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26880" yWindow="1080" windowWidth="25935" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="format" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="2" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -19,8 +20,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -84,24 +83,32 @@
   <si>
     <t>%bottom</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -115,7 +122,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,6 +131,13 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -297,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +386,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -390,7 +406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -685,24 +701,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFC137B-E29E-4A9C-8064-4081F028116D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="155.59765625" defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="155.59765625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" style="21" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="21" customWidth="1"/>
-    <col min="3" max="4" width="90.625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="21" customWidth="1"/>
+    <col min="2" max="2" width="4.296875" style="21" customWidth="1"/>
+    <col min="3" max="4" width="90.59765625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="38.296875" style="21" customWidth="1"/>
     <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -717,14 +761,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="4.5" customHeight="1">
+    <row r="3" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -739,14 +783,14 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="16"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -761,7 +805,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -774,7 +818,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -787,14 +831,14 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -803,14 +847,14 @@
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -818,6 +862,8 @@
       <c r="E12" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>